--- a/Notes and background/source inventory.xlsx
+++ b/Notes and background/source inventory.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mwill\OneDrive - Harvard University\Work\TransitCostsProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MEGA\Harvard\RA\Voulgaris\cap-cost-error\Notes and background\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B3D8A6-B366-4709-8C28-2B33667C016C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{055438D4-208B-4C30-813D-794597787A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{59FDBE78-8E14-4429-8EE5-7677B4FE9E18}"/>
+    <workbookView xWindow="11544" yWindow="2628" windowWidth="17280" windowHeight="8964" xr2:uid="{59FDBE78-8E14-4429-8EE5-7677B4FE9E18}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="43">
   <si>
     <t>Source document</t>
   </si>
@@ -138,12 +138,6 @@
     <t>https://www.transit.dot.gov/funding/grant-programs/capital-investments/capital-investment-program-cig-project-profiles-fiscal</t>
   </si>
   <si>
-    <t>https://cms.fta.dot.gov/funding/grant-programs/capital-investments/capital-investment-program-project-profiles-fy-2016</t>
-  </si>
-  <si>
-    <t>https://cms.fta.dot.gov/funding/grant-programs/capital-investments/capital-investment-program-project-profiles-fy-2017</t>
-  </si>
-  <si>
     <t>https://www.transit.dot.gov/funding/grant-programs/capital-investments/capital-investment-program-project-profiles-fy-2019</t>
   </si>
   <si>
@@ -160,6 +154,15 @@
   </si>
   <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>Capital Investment Program Project Profiles: Fiscal Year 2022 | FTA (dot.gov)</t>
+  </si>
+  <si>
+    <t>Capital Investment Program Project Profiles: FY 2016 | FTA (dot.gov)</t>
+  </si>
+  <si>
+    <t>Capital Investment Program Project Profiles: FY 2017 | FTA (dot.gov)</t>
   </si>
 </sst>
 </file>
@@ -531,20 +534,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CEEBE5E-F343-460D-ACCC-A27CEF215B8C}">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.453125" customWidth="1"/>
-    <col min="2" max="2" width="21.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.44140625" customWidth="1"/>
+    <col min="2" max="2" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.90625" customWidth="1"/>
+    <col min="5" max="5" width="33.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -561,7 +566,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -575,10 +580,10 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -592,10 +597,10 @@
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -612,7 +617,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -629,7 +634,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -643,10 +648,10 @@
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -663,7 +668,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -680,7 +685,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -697,7 +702,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -708,13 +713,13 @@
         <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -731,7 +736,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -748,7 +753,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -765,7 +770,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -782,7 +787,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -799,7 +804,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -816,7 +821,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -833,7 +838,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -850,7 +855,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -867,7 +872,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -884,7 +889,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>2</v>
       </c>
@@ -901,7 +906,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -918,7 +923,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>2</v>
       </c>
@@ -935,7 +940,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>2</v>
       </c>
@@ -952,7 +957,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>2</v>
       </c>
@@ -963,13 +968,13 @@
         <v>15</v>
       </c>
       <c r="D25" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>2</v>
       </c>
@@ -980,13 +985,13 @@
         <v>15</v>
       </c>
       <c r="D26" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -1000,10 +1005,10 @@
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -1017,10 +1022,10 @@
         <v>7</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -1034,10 +1039,10 @@
         <v>5</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -1051,10 +1056,10 @@
         <v>10</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -1068,10 +1073,10 @@
         <v>4</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -1085,10 +1090,10 @@
         <v>25</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -1102,10 +1107,10 @@
         <v>10</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -1119,10 +1124,10 @@
         <v>4</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -1136,10 +1141,10 @@
         <v>10</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -1153,10 +1158,10 @@
         <v>4</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -1170,10 +1175,10 @@
         <v>5</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -1184,13 +1189,13 @@
         <v>15</v>
       </c>
       <c r="D38" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>3</v>
       </c>
@@ -1204,10 +1209,10 @@
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>3</v>
       </c>
@@ -1221,10 +1226,10 @@
         <v>3</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>3</v>
       </c>
@@ -1235,13 +1240,13 @@
         <v>15</v>
       </c>
       <c r="D41" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>3</v>
       </c>
@@ -1258,7 +1263,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>3</v>
       </c>
@@ -1272,10 +1277,10 @@
         <v>41</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>3</v>
       </c>
@@ -1289,10 +1294,10 @@
         <v>33</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>3</v>
       </c>
@@ -1303,10 +1308,27 @@
         <v>15</v>
       </c>
       <c r="D45" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46">
+        <v>2022</v>
+      </c>
+      <c r="C46" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" t="s">
+        <v>39</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1348,14 +1370,15 @@
     <hyperlink ref="E36" r:id="rId31" xr:uid="{C2F81FA4-85D9-4823-91E0-4EB3C6FD250F}"/>
     <hyperlink ref="E37" r:id="rId32" xr:uid="{70FBBAF0-BA28-46FF-9B9C-B3E94C4E1681}"/>
     <hyperlink ref="E38" r:id="rId33" xr:uid="{E6BDCA2A-8239-4CED-91FE-F515A21C81C1}"/>
-    <hyperlink ref="E40" r:id="rId34" xr:uid="{25B2379D-A223-4CB9-A8FE-CE2B16BB23DA}"/>
-    <hyperlink ref="E41" r:id="rId35" xr:uid="{7505AE41-F833-485C-9386-E7C61319959C}"/>
-    <hyperlink ref="E42" r:id="rId36" xr:uid="{7AE527DC-7DAC-4A19-8070-8120B686DBDD}"/>
-    <hyperlink ref="E43" r:id="rId37" xr:uid="{92CA52F8-7830-48FB-915D-74555356FEEA}"/>
-    <hyperlink ref="E44" r:id="rId38" xr:uid="{3580BB6F-CC63-4849-8844-76351F1BEA92}"/>
-    <hyperlink ref="E45" r:id="rId39" xr:uid="{819C82CD-F09E-46F1-8F66-0B29B192CF2B}"/>
+    <hyperlink ref="E42" r:id="rId34" xr:uid="{7AE527DC-7DAC-4A19-8070-8120B686DBDD}"/>
+    <hyperlink ref="E43" r:id="rId35" xr:uid="{92CA52F8-7830-48FB-915D-74555356FEEA}"/>
+    <hyperlink ref="E44" r:id="rId36" xr:uid="{3580BB6F-CC63-4849-8844-76351F1BEA92}"/>
+    <hyperlink ref="E45" r:id="rId37" xr:uid="{819C82CD-F09E-46F1-8F66-0B29B192CF2B}"/>
+    <hyperlink ref="E46" r:id="rId38" display="https://www.transit.dot.gov/grant-programs/capital-investments/capital-investment-program-project-profiles-fiscal-year-2022" xr:uid="{A0110785-0339-46B4-A014-9ED07F42F0B4}"/>
+    <hyperlink ref="E40" r:id="rId39" display="https://www.transit.dot.gov/funding/grant-programs/capital-investments/capital-investment-program-project-profiles-fy-2016" xr:uid="{0C3E9FA8-A998-4607-B989-04851CE8E132}"/>
+    <hyperlink ref="E41" r:id="rId40" display="https://www.transit.dot.gov/funding/grant-programs/capital-investments/capital-investment-program-project-profiles-fy-2017" xr:uid="{9132C3AF-E6F0-47FB-B9EE-0D01A44EA77B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId40"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId41"/>
 </worksheet>
 </file>